--- a/testfiles/entrada/template_input.xlsx
+++ b/testfiles/entrada/template_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OPERACIONAL" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,6 +25,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">OPERACIONAL!$1:$6</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0" vbProcedure="false">OPERACIONAL!$1:$6</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">OPERACIONAL!$1:$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">OPERACIONAL!$1:$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">ADMINISTRATIVO!$1:$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0" vbProcedure="false">ADMINISTRATIVO!$1:$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0" vbProcedure="false">ADMINISTRATIVO!$1:$6</definedName>
@@ -36,297 +37,317 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">ADMINISTRATIVO!$1:$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0" vbProcedure="false">ADMINISTRATIVO!$1:$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">ADMINISTRATIVO!$1:$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">ADMINISTRATIVO!$1:$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
-  <si>
-    <t>RELATÓRIO MENSAL (HEADER)</t>
-  </si>
-  <si>
-    <t>NOME DA UNIDADE</t>
-  </si>
-  <si>
-    <t>MÊS</t>
-  </si>
-  <si>
-    <t>ANO</t>
-  </si>
-  <si>
-    <t>SIGLA</t>
-  </si>
-  <si>
-    <t>Nome da Unidade Célula E3</t>
-  </si>
-  <si>
-    <t>NOME_DO_MÊS</t>
-  </si>
-  <si>
-    <t>20XX</t>
-  </si>
-  <si>
-    <t>MATRÍCULA</t>
-  </si>
-  <si>
-    <t>NOME</t>
-  </si>
-  <si>
-    <t>CARGO</t>
-  </si>
-  <si>
-    <t>RESUMO DA FREQÜÊNCIA</t>
-  </si>
-  <si>
-    <t>QUANTITATIVO</t>
-  </si>
-  <si>
-    <t>DATAS PLANTÕES</t>
-  </si>
-  <si>
-    <t>Tipo de Afastamento</t>
-  </si>
-  <si>
-    <t>Período de Afastamento</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Adicional</t>
-  </si>
-  <si>
-    <t>PLANTÃO 1</t>
-  </si>
-  <si>
-    <t>PLANTÃO 2</t>
-  </si>
-  <si>
-    <t>PLANTÃO 3</t>
-  </si>
-  <si>
-    <t>PLANTÃO 4</t>
-  </si>
-  <si>
-    <t>PLANTÃO 5</t>
-  </si>
-  <si>
-    <t>TOTAL DE PLANTÕES</t>
-  </si>
-  <si>
-    <t>Nome Célula C7</t>
-  </si>
-  <si>
-    <t>Cargo Célula D7</t>
-  </si>
-  <si>
-    <t>Afast E7</t>
-  </si>
-  <si>
-    <t>Período Célula F7</t>
-  </si>
-  <si>
-    <t>Nome Célula C8</t>
-  </si>
-  <si>
-    <t>Cargo Célula D8</t>
-  </si>
-  <si>
-    <t>Afast E8</t>
-  </si>
-  <si>
-    <t>Período Célula F8</t>
-  </si>
-  <si>
-    <t>Nome Célula C9</t>
-  </si>
-  <si>
-    <t>Cargo Célula D9</t>
-  </si>
-  <si>
-    <t>Afast E9</t>
-  </si>
-  <si>
-    <t>Período Célula F9</t>
-  </si>
-  <si>
-    <t>Nome Célula C10</t>
-  </si>
-  <si>
-    <t>Cargo Célula D10</t>
-  </si>
-  <si>
-    <t>Afast E10</t>
-  </si>
-  <si>
-    <t>Período Célula F10</t>
-  </si>
-  <si>
-    <t>Nome Célula C11</t>
-  </si>
-  <si>
-    <t>Cargo Célula D11</t>
-  </si>
-  <si>
-    <t>Afast E11</t>
-  </si>
-  <si>
-    <t>Período Célula F11</t>
-  </si>
-  <si>
-    <t>Nome Célula C12</t>
-  </si>
-  <si>
-    <t>Cargo Célula D12</t>
-  </si>
-  <si>
-    <t>Afast E12</t>
-  </si>
-  <si>
-    <t>Período Célula F12</t>
-  </si>
-  <si>
-    <t>Nome Célula C13</t>
-  </si>
-  <si>
-    <t>Cargo Célula D13</t>
-  </si>
-  <si>
-    <t>Afast E13</t>
-  </si>
-  <si>
-    <t>Período Célula F13</t>
-  </si>
-  <si>
-    <t>Test empty matrícula</t>
-  </si>
-  <si>
-    <t>Nome Célula C15</t>
-  </si>
-  <si>
-    <t>Cargo Célula D14</t>
-  </si>
-  <si>
-    <t>Afast E14</t>
-  </si>
-  <si>
-    <t>Período Célula F14</t>
-  </si>
-  <si>
-    <t>Nome Célula C16</t>
-  </si>
-  <si>
-    <t>Cargo Célula D15</t>
-  </si>
-  <si>
-    <t>Afast E15</t>
-  </si>
-  <si>
-    <t>Período Célula F15</t>
-  </si>
-  <si>
-    <t>Nome Célula C17</t>
-  </si>
-  <si>
-    <t>Cargo Célula D16</t>
-  </si>
-  <si>
-    <t>Afast E16</t>
-  </si>
-  <si>
-    <t>Período Célula F16</t>
-  </si>
-  <si>
-    <t>Nome Célula C18</t>
-  </si>
-  <si>
-    <t>Cargo Célula D17</t>
-  </si>
-  <si>
-    <t>Afast E17</t>
-  </si>
-  <si>
-    <t>Período Célula F17</t>
-  </si>
-  <si>
-    <t>Nome Célula C19</t>
-  </si>
-  <si>
-    <t>Cargo Célula D18</t>
-  </si>
-  <si>
-    <t>Afast E18</t>
-  </si>
-  <si>
-    <t>Período Célula F18</t>
-  </si>
-  <si>
-    <t>Nome Célula C20</t>
-  </si>
-  <si>
-    <t>Cargo Célula D19</t>
-  </si>
-  <si>
-    <t>Afast E19</t>
-  </si>
-  <si>
-    <t>Período Célula F19</t>
-  </si>
-  <si>
-    <t>Test Literal Value</t>
-  </si>
-  <si>
-    <t>Nome Célula C22</t>
-  </si>
-  <si>
-    <t>Cargo Célula D20</t>
-  </si>
-  <si>
-    <t>Afast E20</t>
-  </si>
-  <si>
-    <t>Período Célula F20</t>
-  </si>
-  <si>
-    <t>Nome Célula C23</t>
-  </si>
-  <si>
-    <t>Cargo Célula D21</t>
-  </si>
-  <si>
-    <t>Afast E21</t>
-  </si>
-  <si>
-    <t>Período Célula F21</t>
-  </si>
-  <si>
-    <t>Nome Célula C24</t>
-  </si>
-  <si>
-    <t>Cargo Célula D22</t>
-  </si>
-  <si>
-    <t>Afast E22</t>
-  </si>
-  <si>
-    <t>Período Célula F22</t>
-  </si>
-  <si>
-    <t>Nome Célula C25</t>
-  </si>
-  <si>
-    <t>Cargo Célula D23</t>
-  </si>
-  <si>
-    <t>Afast E23</t>
-  </si>
-  <si>
-    <t>Período Célula F23</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="109">
+  <si>
+    <t xml:space="preserve">RELATÓRIO MENSAL (HEADER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOME DA UNIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÊS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da Unidade Célula E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOME_DO_MÊS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATRÍCULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESUMO DA FREQÜÊNCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUANTITATIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATAS PLANTÕES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de Afastamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período de Afastamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANTÃO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANTÃO 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANTÃO 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANTÃO 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANTÃO 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL DE PLANTÕES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">691513-2-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">691513-2-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test empty matrícula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Literal Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargo Célula D23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afast E23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Período Célula F23</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Tipos de afastamentos:</t>
     </r>
     <r>
@@ -335,6 +356,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> …
 </t>
@@ -352,40 +374,48 @@
     </r>
   </si>
   <si>
-    <t>Footer 02</t>
-  </si>
-  <si>
-    <t>Footer 03</t>
-  </si>
-  <si>
-    <t>Certificado</t>
-  </si>
-  <si>
-    <t>Nome:</t>
-  </si>
-  <si>
-    <t>Ass.:</t>
-  </si>
-  <si>
-    <t>Matrícula:</t>
-  </si>
-  <si>
-    <t>Footer 04</t>
-  </si>
-  <si>
-    <t>HEADER (RELATÓRIO MENSAL)</t>
-  </si>
-  <si>
-    <t>Nome da Unidade Célula B3</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Nome Célula C14</t>
+    <t xml:space="preserve">Footer 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footer 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ass.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrícula:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Footer 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEADER (RELATÓRIO MENSAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome da Unidade Célula B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome Célula C14</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Tipos de afastamentos:</t>
     </r>
     <r>
@@ -394,6 +424,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> …</t>
     </r>
@@ -404,12 +435,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0000000000"/>
     <numFmt numFmtId="166" formatCode="000"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -528,19 +559,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -566,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -694,6 +712,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top/>
@@ -768,7 +793,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -885,6 +910,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -937,7 +970,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -949,7 +982,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -957,15 +990,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -985,15 +1018,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1021,11 +1054,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1033,7 +1062,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,11 +1074,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1053,15 +1086,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1085,24 +1118,24 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="1.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="1.07287449392713"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.71255060728745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="15" min="14" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1274,7 +1307,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567891</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="20" t="s">
@@ -1318,7 +1351,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567892</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
@@ -1362,7 +1395,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567893</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20" t="s">
@@ -1405,21 +1438,21 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="n">
-        <v>1234567890</v>
-      </c>
-      <c r="B11" s="19"/>
+      <c r="A11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -1449,21 +1482,21 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="n">
-        <v>1234567890</v>
-      </c>
-      <c r="B12" s="19"/>
+      <c r="A12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
@@ -1493,21 +1526,21 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="n">
-        <v>1234567890</v>
-      </c>
-      <c r="B13" s="19"/>
+      <c r="A13" s="30" t="n">
+        <v>1234567896</v>
+      </c>
+      <c r="B13" s="30"/>
       <c r="C13" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -1540,7 +1573,7 @@
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -1558,20 +1591,20 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567897</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -1602,20 +1635,20 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567898</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -1646,20 +1679,20 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567899</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -1690,20 +1723,20 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567900</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -1734,20 +1767,20 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567901</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -1778,20 +1811,20 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567902</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -1822,7 +1855,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
@@ -1842,20 +1875,20 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567903</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
@@ -1886,20 +1919,20 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567904</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -1930,20 +1963,20 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567905</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -1974,20 +2007,20 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="19" t="n">
-        <v>1234567890</v>
+        <v>1234567906</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -2017,174 +2050,174 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
+      <c r="A28" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
     </row>
     <row r="29" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
+      <c r="A29" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
     </row>
     <row r="30" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
+      <c r="A31" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="H32" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="H32" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
+      <c r="H33" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
+      <c r="H34" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
+      <c r="H35" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -2269,67 +2302,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="1.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="1.07287449392713"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2793522267206"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.71255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="A1" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55" t="s">
+      <c r="B3" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2346,7 +2379,7 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>10</v>
@@ -2407,11 +2440,11 @@
       <c r="J7" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="58"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2439,11 +2472,11 @@
       <c r="J8" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
       <c r="P8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2504,16 +2537,16 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -2530,16 +2563,16 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
@@ -2556,16 +2589,16 @@
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -2582,16 +2615,16 @@
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -2608,16 +2641,16 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -2629,142 +2662,142 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="A17" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-    </row>
-    <row r="19" s="59" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+    </row>
+    <row r="19" s="61" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
+      <c r="A21" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="48"/>
-      <c r="E24" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="69"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="48"/>
-      <c r="E25" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="69"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="71"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="61"/>
-      <c r="E26" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="73"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="32">
